--- a/data/W9HWData2.xlsx
+++ b/data/W9HWData2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brads\OneDrive\Desktop\FIT3179Week9Homework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAFD4644-48F3-4437-8337-B1349A9C20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C219C57-D377-42D8-B9D6-A63008AD1594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Japan</t>
   </si>
   <si>
-    <t>Korea</t>
-  </si>
-  <si>
     <t>New Zealand</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>Poland</t>
   </si>
   <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>United Kingdom</t>
   </si>
   <si>
-    <t>United States</t>
-  </si>
-  <si>
     <t>Azerbaijan</t>
   </si>
   <si>
@@ -126,6 +117,15 @@
   </si>
   <si>
     <t>Buses%</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
 </sst>
 </file>
@@ -446,35 +446,35 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -641,19 +641,19 @@
         <v>18722</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E24" si="4">SUM(B7:D7)</f>
+        <f t="shared" ref="E7:E23" si="4">SUM(B7:D7)</f>
         <v>93508</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F24" si="5">100*(B7/E7)</f>
+        <f t="shared" ref="F7:F23" si="5">100*(B7/E7)</f>
         <v>8.2901997690037206</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G24" si="6">100*(C7/E7)</f>
+        <f t="shared" ref="G7:G23" si="6">100*(C7/E7)</f>
         <v>71.687983915814684</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:H24" si="7">100*(D7/E7)</f>
+        <f t="shared" ref="H7:H23" si="7">100*(D7/E7)</f>
         <v>20.021816315181589</v>
       </c>
     </row>
@@ -719,7 +719,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>100381</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>773</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>3715</v>
@@ -809,7 +809,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>22056</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>4093</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>28835</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>14617</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17">
         <v>21737</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18">
         <v>70959</v>
@@ -989,7 +989,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>33151</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>544</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>734</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>17700</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>62</v>
